--- a/backends/GitHub_Topics.xlsx
+++ b/backends/GitHub_Topics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="GitHub Topics" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="NewGit topic" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -1007,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -1127,7 +1127,7 @@
         <v>48</v>
       </c>
       <c r="D12">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
